--- a/biology/Botanique/Vismia_baccifera/Vismia_baccifera.xlsx
+++ b/biology/Botanique/Vismia_baccifera/Vismia_baccifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vismia baccifera est une espèce de plantes à fleurs de la famille des Hypericaceae[2]. C'est une plante tropicale originaire d'Amérique. Son aire de répartition s'étend sur les régions tropicales allant du sud du Mexique, en passant par l'Amérique centrale jusqu'au bassin amazonien, en Amérique du Sud. Elle est utilisée en médecine traditionnelle par les peuples indigènes d'Amazonie en Colombie aussi bien qu'au Brésil.
-Des travaux récents ont montré que des extraits de V. baccifera avaient une activité antitumorale sur des cellules d'hépatome humain[3]. Une infusion de cette plante induisait une toxicité sur des cellules cancéreuses humaines et chez le rat. Les résultats ont montré que l'apoptose était liée à l'augmentation du taux intracellulaire des dérivés réactifs de l'oxygène. De même, un des constituants de V. baccifera, la sésamine[4], aurait un effet inhibiteur sur la synthèse du facteur α de nécrose tumorale[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vismia baccifera est une espèce de plantes à fleurs de la famille des Hypericaceae. C'est une plante tropicale originaire d'Amérique. Son aire de répartition s'étend sur les régions tropicales allant du sud du Mexique, en passant par l'Amérique centrale jusqu'au bassin amazonien, en Amérique du Sud. Elle est utilisée en médecine traditionnelle par les peuples indigènes d'Amazonie en Colombie aussi bien qu'au Brésil.
+Des travaux récents ont montré que des extraits de V. baccifera avaient une activité antitumorale sur des cellules d'hépatome humain. Une infusion de cette plante induisait une toxicité sur des cellules cancéreuses humaines et chez le rat. Les résultats ont montré que l'apoptose était liée à l'augmentation du taux intracellulaire des dérivés réactifs de l'oxygène. De même, un des constituants de V. baccifera, la sésamine, aurait un effet inhibiteur sur la synthèse du facteur α de nécrose tumorale.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (15 mars 2019)[6] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (15 mars 2019) (Attention liste brute contenant possiblement des synonymes) :
 Vismia baccifera subsp. baccifera
 Vismia baccifera subsp. dealbata (Kunth) Ewan
 Vismia baccifera subsp. ferruginea (Kunth) Ewan
